--- a/code_team/code_cm/compare_workforce_sizes.xlsx
+++ b/code_team/code_cm/compare_workforce_sizes.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$J$301</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Sheet1!$A$1:$M$301</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="32">
   <si>
     <t xml:space="preserve">instance</t>
   </si>
@@ -49,10 +49,19 @@
     <t xml:space="preserve">objval_rerun</t>
   </si>
   <si>
-    <t xml:space="preserve">check</t>
+    <t xml:space="preserve">workforce size differs</t>
   </si>
   <si>
-    <t xml:space="preserve">check2</t>
+    <t xml:space="preserve">objval differs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rerun workforce size less than</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rerun objval less than</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manual check notes</t>
   </si>
   <si>
     <t xml:space="preserve">frankfurt_db=0.50</t>
@@ -70,6 +79,9 @@
     <t xml:space="preserve">frankfurt_db=1.00</t>
   </si>
   <si>
+    <t xml:space="preserve">manually checked, 22 (really 21 b/c minus one in solver) looks correct, objval for trials are the same between excels</t>
+  </si>
+  <si>
     <t xml:space="preserve">frankfurt_db=2.00</t>
   </si>
   <si>
@@ -85,6 +97,12 @@
     <t xml:space="preserve">lyon_db=2.00</t>
   </si>
   <si>
+    <t xml:space="preserve">manually checked, different objval between the two all_trial excel files, doesn’t appear to be due to run time?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">manually checked, different objval between the two all_trial excel, super weird, does not appear to be due to run_time</t>
+  </si>
+  <si>
     <t xml:space="preserve">lyon_db=4.00</t>
   </si>
   <si>
@@ -97,6 +115,9 @@
     <t xml:space="preserve">paris_db=2.00</t>
   </si>
   <si>
+    <t xml:space="preserve">comparing the two trial_sizes excels, the wage cost differs and the objective value is lower for the current run. Not sure why? The rerun run time I have is around 30 seconds for each of these trials</t>
+  </si>
+  <si>
     <t xml:space="preserve">paris_db=4.00</t>
   </si>
 </sst>
@@ -104,8 +125,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -138,12 +160,18 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -187,7 +215,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -196,7 +224,19 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -209,7 +249,14 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -238,15 +285,17 @@
   <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J301"/>
+  <dimension ref="A1:M301"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.69"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -277,16 +326,25 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -313,10 +371,10 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
@@ -343,10 +401,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
@@ -373,10 +431,10 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -403,10 +461,10 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
@@ -433,10 +491,10 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -463,10 +521,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -493,10 +551,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -523,10 +581,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -553,10 +611,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -583,10 +641,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>2</v>
@@ -614,13 +672,21 @@
         <f aca="false">IF(ROUND(F12,2)=H12,0,1)</f>
         <v>0</v>
       </c>
+      <c r="K12" s="0" t="n">
+        <f aca="false">IF(G12&lt;E12,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <f aca="false">IF(H12&lt;=ROUND(F12,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>2</v>
@@ -648,13 +714,21 @@
         <f aca="false">IF(ROUND(F13,2)=H13,0,1)</f>
         <v>0</v>
       </c>
+      <c r="K13" s="0" t="n">
+        <f aca="false">IF(G13&lt;E13,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <f aca="false">IF(H13&lt;=ROUND(F13,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>2</v>
@@ -682,13 +756,21 @@
         <f aca="false">IF(ROUND(F14,2)=H14,0,1)</f>
         <v>0</v>
       </c>
+      <c r="K14" s="0" t="n">
+        <f aca="false">IF(G14&lt;E14,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <f aca="false">IF(H14&lt;=ROUND(F14,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>2</v>
@@ -715,10 +797,10 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>2</v>
@@ -745,10 +827,10 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>3</v>
@@ -775,10 +857,10 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>3</v>
@@ -805,10 +887,10 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>3</v>
@@ -835,10 +917,10 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>3</v>
@@ -865,10 +947,10 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>3</v>
@@ -895,10 +977,10 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>4</v>
@@ -925,10 +1007,10 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>4</v>
@@ -955,10 +1037,10 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>4</v>
@@ -985,10 +1067,10 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>4</v>
@@ -1015,10 +1097,10 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>4</v>
@@ -1045,10 +1127,10 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="B27" s="0" t="s">
-        <v>11</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>0</v>
@@ -1075,10 +1157,10 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="B28" s="0" t="s">
-        <v>11</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>0</v>
@@ -1105,10 +1187,10 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>11</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>0</v>
@@ -1136,13 +1218,21 @@
         <f aca="false">IF(ROUND(F29,2)=H29,0,1)</f>
         <v>0</v>
       </c>
+      <c r="K29" s="0" t="n">
+        <f aca="false">IF(G29&lt;E29,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="0" t="n">
+        <f aca="false">IF(H29&lt;=ROUND(F29,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>11</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>0</v>
@@ -1170,13 +1260,21 @@
         <f aca="false">IF(ROUND(F30,2)=H30,0,1)</f>
         <v>0</v>
       </c>
+      <c r="K30" s="0" t="n">
+        <f aca="false">IF(G30&lt;E30,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="0" t="n">
+        <f aca="false">IF(H30&lt;=ROUND(F30,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>11</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>0</v>
@@ -1203,10 +1301,10 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>0</v>
@@ -1231,46 +1329,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D33" s="0" t="n">
+    <row r="33" s="4" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2" t="n">
         <v>1.5</v>
       </c>
-      <c r="E33" s="0" t="n">
+      <c r="E33" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="F33" s="0" t="n">
+      <c r="F33" s="2" t="n">
         <v>4354.31666666667</v>
       </c>
-      <c r="G33" s="0" t="n">
+      <c r="G33" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="H33" s="0" t="n">
+      <c r="H33" s="2" t="n">
         <v>4354.32</v>
       </c>
-      <c r="I33" s="0" t="n">
+      <c r="I33" s="2" t="n">
         <f aca="false">IF(E33=G33,0,1)</f>
         <v>1</v>
       </c>
-      <c r="J33" s="0" t="n">
+      <c r="J33" s="2" t="n">
         <f aca="false">IF(ROUND(F33,2)=H33,0,1)</f>
         <v>0</v>
+      </c>
+      <c r="K33" s="4" t="n">
+        <f aca="false">IF(G33&lt;E33,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L33" s="5" t="n">
+        <f aca="false">IF(H33&lt;=ROUND(F33,2),0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>0</v>
@@ -1298,47 +1407,66 @@
         <f aca="false">IF(ROUND(F34,2)=H34,0,1)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E35" s="0" t="n">
+      <c r="K34" s="0" t="n">
+        <f aca="false">IF(G34&lt;E34,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L34" s="0" t="n">
+        <f aca="false">IF(H34&lt;=ROUND(F34,2),0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" s="4" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E35" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="F35" s="0" t="n">
+      <c r="F35" s="2" t="n">
         <v>5673.77777777789</v>
       </c>
-      <c r="G35" s="0" t="n">
+      <c r="G35" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="H35" s="0" t="n">
+      <c r="H35" s="2" t="n">
         <v>5673.78</v>
       </c>
-      <c r="I35" s="0" t="n">
+      <c r="I35" s="2" t="n">
         <f aca="false">IF(E35=G35,0,1)</f>
         <v>1</v>
       </c>
-      <c r="J35" s="0" t="n">
+      <c r="J35" s="2" t="n">
         <f aca="false">IF(ROUND(F35,2)=H35,0,1)</f>
         <v>0</v>
+      </c>
+      <c r="K35" s="4" t="n">
+        <f aca="false">IF(G35&lt;E35,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="5" t="n">
+        <f aca="false">IF(H35&lt;=ROUND(F35,2),0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>0</v>
@@ -1365,10 +1493,10 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>2</v>
@@ -1395,10 +1523,10 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>2</v>
@@ -1425,10 +1553,10 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>2</v>
@@ -1456,13 +1584,21 @@
         <f aca="false">IF(ROUND(F39,2)=H39,0,1)</f>
         <v>0</v>
       </c>
+      <c r="K39" s="0" t="n">
+        <f aca="false">IF(G39&lt;E39,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L39" s="0" t="n">
+        <f aca="false">IF(H39&lt;=ROUND(F39,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>2</v>
@@ -1490,13 +1626,21 @@
         <f aca="false">IF(ROUND(F40,2)=H40,0,1)</f>
         <v>0</v>
       </c>
+      <c r="K40" s="0" t="n">
+        <f aca="false">IF(G40&lt;E40,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L40" s="0" t="n">
+        <f aca="false">IF(H40&lt;=ROUND(F40,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>2</v>
@@ -1523,10 +1667,10 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>3</v>
@@ -1553,10 +1697,10 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>3</v>
@@ -1584,13 +1728,21 @@
         <f aca="false">IF(ROUND(F43,2)=H43,0,1)</f>
         <v>1</v>
       </c>
+      <c r="K43" s="0" t="n">
+        <f aca="false">IF(G43&lt;E43,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L43" s="0" t="n">
+        <f aca="false">IF(H43&lt;=ROUND(F43,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>3</v>
@@ -1618,13 +1770,21 @@
         <f aca="false">IF(ROUND(F44,2)=H44,0,1)</f>
         <v>0</v>
       </c>
+      <c r="K44" s="0" t="n">
+        <f aca="false">IF(G44&lt;E44,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L44" s="0" t="n">
+        <f aca="false">IF(H44&lt;=ROUND(F44,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>3</v>
@@ -1652,13 +1812,21 @@
         <f aca="false">IF(ROUND(F45,2)=H45,0,1)</f>
         <v>0</v>
       </c>
+      <c r="K45" s="0" t="n">
+        <f aca="false">IF(G45&lt;E45,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L45" s="0" t="n">
+        <f aca="false">IF(H45&lt;=ROUND(F45,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>3</v>
@@ -1685,10 +1853,10 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>4</v>
@@ -1715,10 +1883,10 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>4</v>
@@ -1746,13 +1914,21 @@
         <f aca="false">IF(ROUND(F48,2)=H48,0,1)</f>
         <v>0</v>
       </c>
+      <c r="K48" s="0" t="n">
+        <f aca="false">IF(G48&lt;E48,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L48" s="0" t="n">
+        <f aca="false">IF(H48&lt;=ROUND(F48,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>4</v>
@@ -1780,13 +1956,21 @@
         <f aca="false">IF(ROUND(F49,2)=H49,0,1)</f>
         <v>0</v>
       </c>
+      <c r="K49" s="0" t="n">
+        <f aca="false">IF(G49&lt;E49,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L49" s="0" t="n">
+        <f aca="false">IF(H49&lt;=ROUND(F49,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>4</v>
@@ -1814,13 +1998,21 @@
         <f aca="false">IF(ROUND(F50,2)=H50,0,1)</f>
         <v>0</v>
       </c>
+      <c r="K50" s="0" t="n">
+        <f aca="false">IF(G50&lt;E50,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L50" s="0" t="n">
+        <f aca="false">IF(H50&lt;=ROUND(F50,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>4</v>
@@ -1847,10 +2039,10 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C52" s="0" t="n">
         <v>0</v>
@@ -1877,10 +2069,10 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C53" s="0" t="n">
         <v>0</v>
@@ -1907,10 +2099,10 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C54" s="0" t="n">
         <v>0</v>
@@ -1937,10 +2129,10 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C55" s="0" t="n">
         <v>0</v>
@@ -1967,10 +2159,10 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C56" s="0" t="n">
         <v>0</v>
@@ -1997,10 +2189,10 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B57" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="B57" s="0" t="s">
-        <v>12</v>
       </c>
       <c r="C57" s="0" t="n">
         <v>0</v>
@@ -2027,10 +2219,10 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B58" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="B58" s="0" t="s">
-        <v>12</v>
       </c>
       <c r="C58" s="0" t="n">
         <v>0</v>
@@ -2058,13 +2250,21 @@
         <f aca="false">IF(ROUND(F58,2)=H58,0,1)</f>
         <v>1</v>
       </c>
+      <c r="K58" s="0" t="n">
+        <f aca="false">IF(G58&lt;E58,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L58" s="0" t="n">
+        <f aca="false">IF(H58&lt;=ROUND(F58,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B59" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="B59" s="0" t="s">
-        <v>12</v>
       </c>
       <c r="C59" s="0" t="n">
         <v>0</v>
@@ -2092,13 +2292,21 @@
         <f aca="false">IF(ROUND(F59,2)=H59,0,1)</f>
         <v>1</v>
       </c>
+      <c r="K59" s="0" t="n">
+        <f aca="false">IF(G59&lt;E59,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L59" s="0" t="n">
+        <f aca="false">IF(H59&lt;=ROUND(F59,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B60" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="B60" s="0" t="s">
-        <v>12</v>
       </c>
       <c r="C60" s="0" t="n">
         <v>0</v>
@@ -2126,13 +2334,21 @@
         <f aca="false">IF(ROUND(F60,2)=H60,0,1)</f>
         <v>1</v>
       </c>
+      <c r="K60" s="0" t="n">
+        <f aca="false">IF(G60&lt;E60,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L60" s="0" t="n">
+        <f aca="false">IF(H60&lt;=ROUND(F60,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B61" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="B61" s="0" t="s">
-        <v>12</v>
       </c>
       <c r="C61" s="0" t="n">
         <v>0</v>
@@ -2160,13 +2376,21 @@
         <f aca="false">IF(ROUND(F61,2)=H61,0,1)</f>
         <v>1</v>
       </c>
+      <c r="K61" s="0" t="n">
+        <f aca="false">IF(G61&lt;E61,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L61" s="0" t="n">
+        <f aca="false">IF(H61&lt;=ROUND(F61,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C62" s="0" t="n">
         <v>2</v>
@@ -2193,10 +2417,10 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C63" s="0" t="n">
         <v>2</v>
@@ -2223,10 +2447,10 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C64" s="0" t="n">
         <v>2</v>
@@ -2253,10 +2477,10 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C65" s="0" t="n">
         <v>2</v>
@@ -2283,10 +2507,10 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C66" s="0" t="n">
         <v>2</v>
@@ -2313,10 +2537,10 @@
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C67" s="0" t="n">
         <v>3</v>
@@ -2343,10 +2567,10 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C68" s="0" t="n">
         <v>3</v>
@@ -2374,13 +2598,21 @@
         <f aca="false">IF(ROUND(F68,2)=H68,0,1)</f>
         <v>1</v>
       </c>
+      <c r="K68" s="0" t="n">
+        <f aca="false">IF(G68&lt;E68,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L68" s="0" t="n">
+        <f aca="false">IF(H68&lt;=ROUND(F68,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C69" s="0" t="n">
         <v>3</v>
@@ -2408,13 +2640,21 @@
         <f aca="false">IF(ROUND(F69,2)=H69,0,1)</f>
         <v>1</v>
       </c>
+      <c r="K69" s="0" t="n">
+        <f aca="false">IF(G69&lt;E69,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L69" s="0" t="n">
+        <f aca="false">IF(H69&lt;=ROUND(F69,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C70" s="0" t="n">
         <v>3</v>
@@ -2442,13 +2682,21 @@
         <f aca="false">IF(ROUND(F70,2)=H70,0,1)</f>
         <v>1</v>
       </c>
+      <c r="K70" s="0" t="n">
+        <f aca="false">IF(G70&lt;E70,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L70" s="0" t="n">
+        <f aca="false">IF(H70&lt;=ROUND(F70,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C71" s="0" t="n">
         <v>3</v>
@@ -2476,13 +2724,21 @@
         <f aca="false">IF(ROUND(F71,2)=H71,0,1)</f>
         <v>1</v>
       </c>
+      <c r="K71" s="0" t="n">
+        <f aca="false">IF(G71&lt;E71,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L71" s="0" t="n">
+        <f aca="false">IF(H71&lt;=ROUND(F71,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C72" s="0" t="n">
         <v>4</v>
@@ -2509,10 +2765,10 @@
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C73" s="0" t="n">
         <v>4</v>
@@ -2540,13 +2796,21 @@
         <f aca="false">IF(ROUND(F73,2)=H73,0,1)</f>
         <v>1</v>
       </c>
+      <c r="K73" s="0" t="n">
+        <f aca="false">IF(G73&lt;E73,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L73" s="0" t="n">
+        <f aca="false">IF(H73&lt;=ROUND(F73,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C74" s="0" t="n">
         <v>4</v>
@@ -2574,13 +2838,21 @@
         <f aca="false">IF(ROUND(F74,2)=H74,0,1)</f>
         <v>1</v>
       </c>
+      <c r="K74" s="0" t="n">
+        <f aca="false">IF(G74&lt;E74,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L74" s="0" t="n">
+        <f aca="false">IF(H74&lt;=ROUND(F74,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C75" s="0" t="n">
         <v>4</v>
@@ -2608,13 +2880,21 @@
         <f aca="false">IF(ROUND(F75,2)=H75,0,1)</f>
         <v>1</v>
       </c>
+      <c r="K75" s="0" t="n">
+        <f aca="false">IF(G75&lt;E75,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L75" s="0" t="n">
+        <f aca="false">IF(H75&lt;=ROUND(F75,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C76" s="0" t="n">
         <v>4</v>
@@ -2642,13 +2922,21 @@
         <f aca="false">IF(ROUND(F76,2)=H76,0,1)</f>
         <v>1</v>
       </c>
+      <c r="K76" s="0" t="n">
+        <f aca="false">IF(G76&lt;E76,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L76" s="0" t="n">
+        <f aca="false">IF(H76&lt;=ROUND(F76,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C77" s="0" t="n">
         <v>0</v>
@@ -2675,10 +2963,10 @@
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C78" s="0" t="n">
         <v>0</v>
@@ -2705,10 +2993,10 @@
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C79" s="0" t="n">
         <v>0</v>
@@ -2735,10 +3023,10 @@
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C80" s="0" t="n">
         <v>0</v>
@@ -2765,10 +3053,10 @@
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C81" s="0" t="n">
         <v>0</v>
@@ -2795,10 +3083,10 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C82" s="0" t="n">
         <v>0</v>
@@ -2826,13 +3114,21 @@
         <f aca="false">IF(ROUND(F82,2)=H82,0,1)</f>
         <v>1</v>
       </c>
+      <c r="K82" s="0" t="n">
+        <f aca="false">IF(G82&lt;E82,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L82" s="0" t="n">
+        <f aca="false">IF(H82&lt;=ROUND(F82,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C83" s="0" t="n">
         <v>0</v>
@@ -2860,13 +3156,21 @@
         <f aca="false">IF(ROUND(F83,2)=H83,0,1)</f>
         <v>1</v>
       </c>
+      <c r="K83" s="0" t="n">
+        <f aca="false">IF(G83&lt;E83,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L83" s="0" t="n">
+        <f aca="false">IF(H83&lt;=ROUND(F83,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C84" s="0" t="n">
         <v>0</v>
@@ -2894,13 +3198,21 @@
         <f aca="false">IF(ROUND(F84,2)=H84,0,1)</f>
         <v>1</v>
       </c>
+      <c r="K84" s="0" t="n">
+        <f aca="false">IF(G84&lt;E84,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L84" s="0" t="n">
+        <f aca="false">IF(H84&lt;=ROUND(F84,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C85" s="0" t="n">
         <v>0</v>
@@ -2928,13 +3240,21 @@
         <f aca="false">IF(ROUND(F85,2)=H85,0,1)</f>
         <v>1</v>
       </c>
+      <c r="K85" s="0" t="n">
+        <f aca="false">IF(G85&lt;E85,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L85" s="0" t="n">
+        <f aca="false">IF(H85&lt;=ROUND(F85,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C86" s="0" t="n">
         <v>0</v>
@@ -2962,13 +3282,21 @@
         <f aca="false">IF(ROUND(F86,2)=H86,0,1)</f>
         <v>1</v>
       </c>
+      <c r="K86" s="0" t="n">
+        <f aca="false">IF(G86&lt;E86,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L86" s="0" t="n">
+        <f aca="false">IF(H86&lt;=ROUND(F86,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C87" s="0" t="n">
         <v>2</v>
@@ -2995,10 +3323,10 @@
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C88" s="0" t="n">
         <v>2</v>
@@ -3025,10 +3353,10 @@
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C89" s="0" t="n">
         <v>2</v>
@@ -3055,10 +3383,10 @@
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C90" s="0" t="n">
         <v>2</v>
@@ -3085,10 +3413,10 @@
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C91" s="0" t="n">
         <v>2</v>
@@ -3115,10 +3443,10 @@
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C92" s="0" t="n">
         <v>3</v>
@@ -3146,13 +3474,21 @@
         <f aca="false">IF(ROUND(F92,2)=H92,0,1)</f>
         <v>1</v>
       </c>
+      <c r="K92" s="0" t="n">
+        <f aca="false">IF(G92&lt;E92,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L92" s="0" t="n">
+        <f aca="false">IF(H92&lt;=ROUND(F92,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C93" s="0" t="n">
         <v>3</v>
@@ -3180,13 +3516,21 @@
         <f aca="false">IF(ROUND(F93,2)=H93,0,1)</f>
         <v>1</v>
       </c>
+      <c r="K93" s="0" t="n">
+        <f aca="false">IF(G93&lt;E93,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L93" s="0" t="n">
+        <f aca="false">IF(H93&lt;=ROUND(F93,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C94" s="0" t="n">
         <v>3</v>
@@ -3214,13 +3558,21 @@
         <f aca="false">IF(ROUND(F94,2)=H94,0,1)</f>
         <v>1</v>
       </c>
+      <c r="K94" s="0" t="n">
+        <f aca="false">IF(G94&lt;E94,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L94" s="0" t="n">
+        <f aca="false">IF(H94&lt;=ROUND(F94,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C95" s="0" t="n">
         <v>3</v>
@@ -3248,13 +3600,21 @@
         <f aca="false">IF(ROUND(F95,2)=H95,0,1)</f>
         <v>1</v>
       </c>
+      <c r="K95" s="0" t="n">
+        <f aca="false">IF(G95&lt;E95,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L95" s="0" t="n">
+        <f aca="false">IF(H95&lt;=ROUND(F95,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C96" s="0" t="n">
         <v>3</v>
@@ -3282,13 +3642,21 @@
         <f aca="false">IF(ROUND(F96,2)=H96,0,1)</f>
         <v>1</v>
       </c>
+      <c r="K96" s="0" t="n">
+        <f aca="false">IF(G96&lt;E96,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L96" s="0" t="n">
+        <f aca="false">IF(H96&lt;=ROUND(F96,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C97" s="0" t="n">
         <v>4</v>
@@ -3316,13 +3684,21 @@
         <f aca="false">IF(ROUND(F97,2)=H97,0,1)</f>
         <v>1</v>
       </c>
+      <c r="K97" s="0" t="n">
+        <f aca="false">IF(G97&lt;E97,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L97" s="0" t="n">
+        <f aca="false">IF(H97&lt;=ROUND(F97,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C98" s="0" t="n">
         <v>4</v>
@@ -3350,13 +3726,21 @@
         <f aca="false">IF(ROUND(F98,2)=H98,0,1)</f>
         <v>1</v>
       </c>
+      <c r="K98" s="0" t="n">
+        <f aca="false">IF(G98&lt;E98,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L98" s="0" t="n">
+        <f aca="false">IF(H98&lt;=ROUND(F98,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C99" s="0" t="n">
         <v>4</v>
@@ -3384,13 +3768,21 @@
         <f aca="false">IF(ROUND(F99,2)=H99,0,1)</f>
         <v>1</v>
       </c>
+      <c r="K99" s="0" t="n">
+        <f aca="false">IF(G99&lt;E99,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L99" s="0" t="n">
+        <f aca="false">IF(H99&lt;=ROUND(F99,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C100" s="0" t="n">
         <v>4</v>
@@ -3418,13 +3810,21 @@
         <f aca="false">IF(ROUND(F100,2)=H100,0,1)</f>
         <v>1</v>
       </c>
+      <c r="K100" s="0" t="n">
+        <f aca="false">IF(G100&lt;E100,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L100" s="0" t="n">
+        <f aca="false">IF(H100&lt;=ROUND(F100,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B101" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C101" s="0" t="n">
         <v>4</v>
@@ -3452,13 +3852,21 @@
         <f aca="false">IF(ROUND(F101,2)=H101,0,1)</f>
         <v>1</v>
       </c>
+      <c r="K101" s="0" t="n">
+        <f aca="false">IF(G101&lt;E101,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L101" s="0" t="n">
+        <f aca="false">IF(H101&lt;=ROUND(F101,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="102" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B102" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C102" s="0" t="n">
         <v>0</v>
@@ -3485,10 +3893,10 @@
     </row>
     <row r="103" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B103" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C103" s="0" t="n">
         <v>0</v>
@@ -3515,10 +3923,10 @@
     </row>
     <row r="104" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B104" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C104" s="0" t="n">
         <v>0</v>
@@ -3545,10 +3953,10 @@
     </row>
     <row r="105" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B105" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C105" s="0" t="n">
         <v>0</v>
@@ -3575,10 +3983,10 @@
     </row>
     <row r="106" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B106" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C106" s="0" t="n">
         <v>0</v>
@@ -3605,10 +4013,10 @@
     </row>
     <row r="107" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B107" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C107" s="0" t="n">
         <v>0</v>
@@ -3635,10 +4043,10 @@
     </row>
     <row r="108" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B108" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C108" s="0" t="n">
         <v>0</v>
@@ -3665,10 +4073,10 @@
     </row>
     <row r="109" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B109" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C109" s="0" t="n">
         <v>0</v>
@@ -3695,10 +4103,10 @@
     </row>
     <row r="110" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B110" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C110" s="0" t="n">
         <v>0</v>
@@ -3725,10 +4133,10 @@
     </row>
     <row r="111" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B111" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C111" s="0" t="n">
         <v>0</v>
@@ -3755,10 +4163,10 @@
     </row>
     <row r="112" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B112" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C112" s="0" t="n">
         <v>2</v>
@@ -3785,10 +4193,10 @@
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B113" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C113" s="0" t="n">
         <v>2</v>
@@ -3815,10 +4223,10 @@
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B114" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C114" s="0" t="n">
         <v>2</v>
@@ -3845,10 +4253,10 @@
     </row>
     <row r="115" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B115" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C115" s="0" t="n">
         <v>2</v>
@@ -3875,10 +4283,10 @@
     </row>
     <row r="116" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B116" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C116" s="0" t="n">
         <v>2</v>
@@ -3905,10 +4313,10 @@
     </row>
     <row r="117" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B117" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C117" s="0" t="n">
         <v>3</v>
@@ -3935,10 +4343,10 @@
     </row>
     <row r="118" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B118" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C118" s="0" t="n">
         <v>3</v>
@@ -3965,10 +4373,10 @@
     </row>
     <row r="119" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B119" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C119" s="0" t="n">
         <v>3</v>
@@ -3995,10 +4403,10 @@
     </row>
     <row r="120" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B120" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C120" s="0" t="n">
         <v>3</v>
@@ -4025,10 +4433,10 @@
     </row>
     <row r="121" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B121" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C121" s="0" t="n">
         <v>3</v>
@@ -4055,10 +4463,10 @@
     </row>
     <row r="122" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B122" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C122" s="0" t="n">
         <v>4</v>
@@ -4085,10 +4493,10 @@
     </row>
     <row r="123" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B123" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C123" s="0" t="n">
         <v>4</v>
@@ -4115,10 +4523,10 @@
     </row>
     <row r="124" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B124" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C124" s="0" t="n">
         <v>4</v>
@@ -4145,10 +4553,10 @@
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B125" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C125" s="0" t="n">
         <v>4</v>
@@ -4175,10 +4583,10 @@
     </row>
     <row r="126" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B126" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C126" s="0" t="n">
         <v>4</v>
@@ -4205,10 +4613,10 @@
     </row>
     <row r="127" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B127" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C127" s="0" t="n">
         <v>0</v>
@@ -4235,10 +4643,10 @@
     </row>
     <row r="128" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B128" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C128" s="0" t="n">
         <v>0</v>
@@ -4265,10 +4673,10 @@
     </row>
     <row r="129" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B129" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C129" s="0" t="n">
         <v>0</v>
@@ -4295,10 +4703,10 @@
     </row>
     <row r="130" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B130" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C130" s="0" t="n">
         <v>0</v>
@@ -4325,10 +4733,10 @@
     </row>
     <row r="131" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B131" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C131" s="0" t="n">
         <v>0</v>
@@ -4355,10 +4763,10 @@
     </row>
     <row r="132" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B132" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C132" s="0" t="n">
         <v>0</v>
@@ -4385,10 +4793,10 @@
     </row>
     <row r="133" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B133" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C133" s="0" t="n">
         <v>0</v>
@@ -4415,10 +4823,10 @@
     </row>
     <row r="134" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B134" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C134" s="0" t="n">
         <v>0</v>
@@ -4445,10 +4853,10 @@
     </row>
     <row r="135" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B135" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C135" s="0" t="n">
         <v>0</v>
@@ -4475,10 +4883,10 @@
     </row>
     <row r="136" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B136" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C136" s="0" t="n">
         <v>0</v>
@@ -4505,10 +4913,10 @@
     </row>
     <row r="137" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B137" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C137" s="0" t="n">
         <v>2</v>
@@ -4535,10 +4943,10 @@
     </row>
     <row r="138" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B138" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C138" s="0" t="n">
         <v>2</v>
@@ -4565,10 +4973,10 @@
     </row>
     <row r="139" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B139" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C139" s="0" t="n">
         <v>2</v>
@@ -4595,10 +5003,10 @@
     </row>
     <row r="140" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B140" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C140" s="0" t="n">
         <v>2</v>
@@ -4625,10 +5033,10 @@
     </row>
     <row r="141" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B141" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C141" s="0" t="n">
         <v>2</v>
@@ -4655,10 +5063,10 @@
     </row>
     <row r="142" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B142" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C142" s="0" t="n">
         <v>3</v>
@@ -4685,10 +5093,10 @@
     </row>
     <row r="143" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B143" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C143" s="0" t="n">
         <v>3</v>
@@ -4715,10 +5123,10 @@
     </row>
     <row r="144" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B144" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C144" s="0" t="n">
         <v>3</v>
@@ -4745,10 +5153,10 @@
     </row>
     <row r="145" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B145" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C145" s="0" t="n">
         <v>3</v>
@@ -4775,10 +5183,10 @@
     </row>
     <row r="146" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B146" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C146" s="0" t="n">
         <v>3</v>
@@ -4805,10 +5213,10 @@
     </row>
     <row r="147" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B147" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C147" s="0" t="n">
         <v>4</v>
@@ -4835,10 +5243,10 @@
     </row>
     <row r="148" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B148" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C148" s="0" t="n">
         <v>4</v>
@@ -4865,10 +5273,10 @@
     </row>
     <row r="149" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B149" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C149" s="0" t="n">
         <v>4</v>
@@ -4895,10 +5303,10 @@
     </row>
     <row r="150" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B150" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C150" s="0" t="n">
         <v>4</v>
@@ -4925,10 +5333,10 @@
     </row>
     <row r="151" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B151" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C151" s="0" t="n">
         <v>4</v>
@@ -4955,10 +5363,10 @@
     </row>
     <row r="152" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B152" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C152" s="0" t="n">
         <v>0</v>
@@ -4985,10 +5393,10 @@
     </row>
     <row r="153" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B153" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C153" s="0" t="n">
         <v>0</v>
@@ -5015,10 +5423,10 @@
     </row>
     <row r="154" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B154" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C154" s="0" t="n">
         <v>0</v>
@@ -5045,10 +5453,10 @@
     </row>
     <row r="155" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B155" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C155" s="0" t="n">
         <v>0</v>
@@ -5075,10 +5483,10 @@
     </row>
     <row r="156" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B156" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C156" s="0" t="n">
         <v>0</v>
@@ -5105,10 +5513,10 @@
     </row>
     <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B157" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C157" s="0" t="n">
         <v>0</v>
@@ -5136,47 +5544,66 @@
         <f aca="false">IF(ROUND(F157,2)=H157,0,1)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B158" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C158" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D158" s="0" t="n">
+      <c r="K157" s="0" t="n">
+        <f aca="false">IF(G157&lt;E157,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L157" s="0" t="n">
+        <f aca="false">IF(H157&lt;=ROUND(F157,2),0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C158" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D158" s="2" t="n">
         <v>1.5</v>
       </c>
-      <c r="E158" s="0" t="n">
+      <c r="E158" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="F158" s="0" t="n">
+      <c r="F158" s="2" t="n">
         <v>14431.4900787937</v>
       </c>
-      <c r="G158" s="0" t="n">
+      <c r="G158" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="H158" s="0" t="n">
+      <c r="H158" s="2" t="n">
         <v>14431.44</v>
       </c>
-      <c r="I158" s="0" t="n">
+      <c r="I158" s="2" t="n">
         <f aca="false">IF(E158=G158,0,1)</f>
         <v>1</v>
       </c>
-      <c r="J158" s="0" t="n">
+      <c r="J158" s="2" t="n">
         <f aca="false">IF(ROUND(F158,2)=H158,0,1)</f>
         <v>1</v>
+      </c>
+      <c r="K158" s="4" t="n">
+        <f aca="false">IF(G158&lt;E158,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L158" s="5" t="n">
+        <f aca="false">IF(H158&lt;=ROUND(F158,2),0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="M158" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B159" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C159" s="0" t="n">
         <v>0</v>
@@ -5201,46 +5628,57 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="B160" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C160" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D160" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E160" s="0" t="n">
+    <row r="160" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C160" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D160" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E160" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="F160" s="0" t="n">
+      <c r="F160" s="2" t="n">
         <v>18895.4505801777</v>
       </c>
-      <c r="G160" s="0" t="n">
+      <c r="G160" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="H160" s="0" t="n">
+      <c r="H160" s="2" t="n">
         <v>18894.9</v>
       </c>
-      <c r="I160" s="0" t="n">
+      <c r="I160" s="2" t="n">
         <f aca="false">IF(E160=G160,0,1)</f>
         <v>1</v>
       </c>
-      <c r="J160" s="0" t="n">
+      <c r="J160" s="2" t="n">
         <f aca="false">IF(ROUND(F160,2)=H160,0,1)</f>
         <v>1</v>
+      </c>
+      <c r="K160" s="4" t="n">
+        <f aca="false">IF(G160&lt;E160,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L160" s="5" t="n">
+        <f aca="false">IF(H160&lt;=ROUND(F160,2),0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="M160" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B161" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C161" s="0" t="n">
         <v>0</v>
@@ -5267,10 +5705,10 @@
     </row>
     <row r="162" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B162" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C162" s="0" t="n">
         <v>2</v>
@@ -5297,10 +5735,10 @@
     </row>
     <row r="163" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B163" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C163" s="0" t="n">
         <v>2</v>
@@ -5327,10 +5765,10 @@
     </row>
     <row r="164" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B164" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C164" s="0" t="n">
         <v>2</v>
@@ -5357,10 +5795,10 @@
     </row>
     <row r="165" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B165" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C165" s="0" t="n">
         <v>2</v>
@@ -5387,10 +5825,10 @@
     </row>
     <row r="166" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B166" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C166" s="0" t="n">
         <v>2</v>
@@ -5417,10 +5855,10 @@
     </row>
     <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B167" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C167" s="0" t="n">
         <v>3</v>
@@ -5448,13 +5886,21 @@
         <f aca="false">IF(ROUND(F167,2)=H167,0,1)</f>
         <v>1</v>
       </c>
+      <c r="K167" s="0" t="n">
+        <f aca="false">IF(G167&lt;E167,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L167" s="0" t="n">
+        <f aca="false">IF(H167&lt;=ROUND(F167,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B168" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C168" s="0" t="n">
         <v>3</v>
@@ -5482,13 +5928,21 @@
         <f aca="false">IF(ROUND(F168,2)=H168,0,1)</f>
         <v>1</v>
       </c>
+      <c r="K168" s="0" t="n">
+        <f aca="false">IF(G168&lt;E168,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L168" s="0" t="n">
+        <f aca="false">IF(H168&lt;=ROUND(F168,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="169" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B169" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C169" s="0" t="n">
         <v>3</v>
@@ -5515,10 +5969,10 @@
     </row>
     <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B170" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C170" s="0" t="n">
         <v>3</v>
@@ -5546,13 +6000,21 @@
         <f aca="false">IF(ROUND(F170,2)=H170,0,1)</f>
         <v>1</v>
       </c>
+      <c r="K170" s="0" t="n">
+        <f aca="false">IF(G170&lt;E170,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L170" s="0" t="n">
+        <f aca="false">IF(H170&lt;=ROUND(F170,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="171" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B171" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C171" s="0" t="n">
         <v>3</v>
@@ -5579,10 +6041,10 @@
     </row>
     <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B172" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C172" s="0" t="n">
         <v>4</v>
@@ -5610,13 +6072,21 @@
         <f aca="false">IF(ROUND(F172,2)=H172,0,1)</f>
         <v>1</v>
       </c>
+      <c r="K172" s="0" t="n">
+        <f aca="false">IF(G172&lt;E172,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L172" s="0" t="n">
+        <f aca="false">IF(H172&lt;=ROUND(F172,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B173" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C173" s="0" t="n">
         <v>4</v>
@@ -5644,13 +6114,21 @@
         <f aca="false">IF(ROUND(F173,2)=H173,0,1)</f>
         <v>1</v>
       </c>
+      <c r="K173" s="0" t="n">
+        <f aca="false">IF(G173&lt;E173,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L173" s="0" t="n">
+        <f aca="false">IF(H173&lt;=ROUND(F173,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="174" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B174" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C174" s="0" t="n">
         <v>4</v>
@@ -5677,10 +6155,10 @@
     </row>
     <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B175" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C175" s="0" t="n">
         <v>4</v>
@@ -5708,13 +6186,21 @@
         <f aca="false">IF(ROUND(F175,2)=H175,0,1)</f>
         <v>1</v>
       </c>
+      <c r="K175" s="0" t="n">
+        <f aca="false">IF(G175&lt;E175,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L175" s="0" t="n">
+        <f aca="false">IF(H175&lt;=ROUND(F175,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="176" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B176" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C176" s="0" t="n">
         <v>4</v>
@@ -5741,10 +6227,10 @@
     </row>
     <row r="177" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B177" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C177" s="0" t="n">
         <v>0</v>
@@ -5771,10 +6257,10 @@
     </row>
     <row r="178" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B178" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C178" s="0" t="n">
         <v>0</v>
@@ -5801,10 +6287,10 @@
     </row>
     <row r="179" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B179" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C179" s="0" t="n">
         <v>0</v>
@@ -5831,10 +6317,10 @@
     </row>
     <row r="180" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B180" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C180" s="0" t="n">
         <v>0</v>
@@ -5861,10 +6347,10 @@
     </row>
     <row r="181" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B181" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C181" s="0" t="n">
         <v>0</v>
@@ -5891,10 +6377,10 @@
     </row>
     <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B182" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C182" s="0" t="n">
         <v>0</v>
@@ -5922,13 +6408,21 @@
         <f aca="false">IF(ROUND(F182,2)=H182,0,1)</f>
         <v>1</v>
       </c>
+      <c r="K182" s="0" t="n">
+        <f aca="false">IF(G182&lt;E182,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L182" s="0" t="n">
+        <f aca="false">IF(H182&lt;=ROUND(F182,2),0,1)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B183" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C183" s="0" t="n">
         <v>0</v>
@@ -5956,13 +6450,21 @@
         <f aca="false">IF(ROUND(F183,2)=H183,0,1)</f>
         <v>1</v>
       </c>
+      <c r="K183" s="0" t="n">
+        <f aca="false">IF(G183&lt;E183,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L183" s="0" t="n">
+        <f aca="false">IF(H183&lt;=ROUND(F183,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B184" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C184" s="0" t="n">
         <v>0</v>
@@ -5990,13 +6492,21 @@
         <f aca="false">IF(ROUND(F184,2)=H184,0,1)</f>
         <v>1</v>
       </c>
+      <c r="K184" s="0" t="n">
+        <f aca="false">IF(G184&lt;E184,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L184" s="0" t="n">
+        <f aca="false">IF(H184&lt;=ROUND(F184,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B185" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C185" s="0" t="n">
         <v>0</v>
@@ -6024,13 +6534,21 @@
         <f aca="false">IF(ROUND(F185,2)=H185,0,1)</f>
         <v>1</v>
       </c>
+      <c r="K185" s="0" t="n">
+        <f aca="false">IF(G185&lt;E185,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L185" s="0" t="n">
+        <f aca="false">IF(H185&lt;=ROUND(F185,2),0,1)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B186" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C186" s="0" t="n">
         <v>0</v>
@@ -6058,13 +6576,21 @@
         <f aca="false">IF(ROUND(F186,2)=H186,0,1)</f>
         <v>1</v>
       </c>
+      <c r="K186" s="0" t="n">
+        <f aca="false">IF(G186&lt;E186,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L186" s="0" t="n">
+        <f aca="false">IF(H186&lt;=ROUND(F186,2),0,1)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="187" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B187" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C187" s="0" t="n">
         <v>2</v>
@@ -6091,10 +6617,10 @@
     </row>
     <row r="188" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B188" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C188" s="0" t="n">
         <v>2</v>
@@ -6121,10 +6647,10 @@
     </row>
     <row r="189" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B189" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C189" s="0" t="n">
         <v>2</v>
@@ -6151,10 +6677,10 @@
     </row>
     <row r="190" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B190" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C190" s="0" t="n">
         <v>2</v>
@@ -6181,10 +6707,10 @@
     </row>
     <row r="191" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B191" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C191" s="0" t="n">
         <v>2</v>
@@ -6211,10 +6737,10 @@
     </row>
     <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B192" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C192" s="0" t="n">
         <v>3</v>
@@ -6242,13 +6768,21 @@
         <f aca="false">IF(ROUND(F192,2)=H192,0,1)</f>
         <v>1</v>
       </c>
+      <c r="K192" s="0" t="n">
+        <f aca="false">IF(G192&lt;E192,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L192" s="0" t="n">
+        <f aca="false">IF(H192&lt;=ROUND(F192,2),0,1)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B193" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C193" s="0" t="n">
         <v>3</v>
@@ -6276,13 +6810,21 @@
         <f aca="false">IF(ROUND(F193,2)=H193,0,1)</f>
         <v>1</v>
       </c>
+      <c r="K193" s="0" t="n">
+        <f aca="false">IF(G193&lt;E193,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L193" s="0" t="n">
+        <f aca="false">IF(H193&lt;=ROUND(F193,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B194" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C194" s="0" t="n">
         <v>3</v>
@@ -6310,13 +6852,21 @@
         <f aca="false">IF(ROUND(F194,2)=H194,0,1)</f>
         <v>1</v>
       </c>
+      <c r="K194" s="0" t="n">
+        <f aca="false">IF(G194&lt;E194,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L194" s="0" t="n">
+        <f aca="false">IF(H194&lt;=ROUND(F194,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B195" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C195" s="0" t="n">
         <v>3</v>
@@ -6344,13 +6894,21 @@
         <f aca="false">IF(ROUND(F195,2)=H195,0,1)</f>
         <v>1</v>
       </c>
+      <c r="K195" s="0" t="n">
+        <f aca="false">IF(G195&lt;E195,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L195" s="0" t="n">
+        <f aca="false">IF(H195&lt;=ROUND(F195,2),0,1)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B196" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C196" s="0" t="n">
         <v>3</v>
@@ -6378,13 +6936,21 @@
         <f aca="false">IF(ROUND(F196,2)=H196,0,1)</f>
         <v>1</v>
       </c>
+      <c r="K196" s="0" t="n">
+        <f aca="false">IF(G196&lt;E196,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L196" s="0" t="n">
+        <f aca="false">IF(H196&lt;=ROUND(F196,2),0,1)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B197" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C197" s="0" t="n">
         <v>4</v>
@@ -6412,13 +6978,21 @@
         <f aca="false">IF(ROUND(F197,2)=H197,0,1)</f>
         <v>1</v>
       </c>
+      <c r="K197" s="0" t="n">
+        <f aca="false">IF(G197&lt;E197,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L197" s="0" t="n">
+        <f aca="false">IF(H197&lt;=ROUND(F197,2),0,1)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B198" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C198" s="0" t="n">
         <v>4</v>
@@ -6446,13 +7020,21 @@
         <f aca="false">IF(ROUND(F198,2)=H198,0,1)</f>
         <v>1</v>
       </c>
+      <c r="K198" s="0" t="n">
+        <f aca="false">IF(G198&lt;E198,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L198" s="0" t="n">
+        <f aca="false">IF(H198&lt;=ROUND(F198,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B199" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C199" s="0" t="n">
         <v>4</v>
@@ -6480,13 +7062,21 @@
         <f aca="false">IF(ROUND(F199,2)=H199,0,1)</f>
         <v>1</v>
       </c>
+      <c r="K199" s="0" t="n">
+        <f aca="false">IF(G199&lt;E199,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L199" s="0" t="n">
+        <f aca="false">IF(H199&lt;=ROUND(F199,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B200" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C200" s="0" t="n">
         <v>4</v>
@@ -6514,13 +7104,21 @@
         <f aca="false">IF(ROUND(F200,2)=H200,0,1)</f>
         <v>1</v>
       </c>
+      <c r="K200" s="0" t="n">
+        <f aca="false">IF(G200&lt;E200,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L200" s="0" t="n">
+        <f aca="false">IF(H200&lt;=ROUND(F200,2),0,1)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B201" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C201" s="0" t="n">
         <v>4</v>
@@ -6548,13 +7146,21 @@
         <f aca="false">IF(ROUND(F201,2)=H201,0,1)</f>
         <v>1</v>
       </c>
+      <c r="K201" s="0" t="n">
+        <f aca="false">IF(G201&lt;E201,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L201" s="0" t="n">
+        <f aca="false">IF(H201&lt;=ROUND(F201,2),0,1)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="202" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B202" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C202" s="0" t="n">
         <v>0</v>
@@ -6581,10 +7187,10 @@
     </row>
     <row r="203" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B203" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C203" s="0" t="n">
         <v>0</v>
@@ -6611,10 +7217,10 @@
     </row>
     <row r="204" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B204" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C204" s="0" t="n">
         <v>0</v>
@@ -6641,10 +7247,10 @@
     </row>
     <row r="205" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B205" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C205" s="0" t="n">
         <v>0</v>
@@ -6671,10 +7277,10 @@
     </row>
     <row r="206" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B206" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C206" s="0" t="n">
         <v>0</v>
@@ -6701,10 +7307,10 @@
     </row>
     <row r="207" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B207" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C207" s="0" t="n">
         <v>0</v>
@@ -6731,10 +7337,10 @@
     </row>
     <row r="208" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B208" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C208" s="0" t="n">
         <v>0</v>
@@ -6761,10 +7367,10 @@
     </row>
     <row r="209" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B209" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C209" s="0" t="n">
         <v>0</v>
@@ -6791,10 +7397,10 @@
     </row>
     <row r="210" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B210" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C210" s="0" t="n">
         <v>0</v>
@@ -6821,10 +7427,10 @@
     </row>
     <row r="211" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B211" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C211" s="0" t="n">
         <v>0</v>
@@ -6851,10 +7457,10 @@
     </row>
     <row r="212" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B212" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C212" s="0" t="n">
         <v>2</v>
@@ -6881,10 +7487,10 @@
     </row>
     <row r="213" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B213" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C213" s="0" t="n">
         <v>2</v>
@@ -6911,10 +7517,10 @@
     </row>
     <row r="214" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B214" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C214" s="0" t="n">
         <v>2</v>
@@ -6941,10 +7547,10 @@
     </row>
     <row r="215" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B215" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C215" s="0" t="n">
         <v>2</v>
@@ -6971,10 +7577,10 @@
     </row>
     <row r="216" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B216" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C216" s="0" t="n">
         <v>2</v>
@@ -7001,10 +7607,10 @@
     </row>
     <row r="217" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B217" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C217" s="0" t="n">
         <v>3</v>
@@ -7031,10 +7637,10 @@
     </row>
     <row r="218" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B218" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C218" s="0" t="n">
         <v>3</v>
@@ -7061,10 +7667,10 @@
     </row>
     <row r="219" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B219" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C219" s="0" t="n">
         <v>3</v>
@@ -7091,10 +7697,10 @@
     </row>
     <row r="220" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B220" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C220" s="0" t="n">
         <v>3</v>
@@ -7121,10 +7727,10 @@
     </row>
     <row r="221" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B221" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C221" s="0" t="n">
         <v>3</v>
@@ -7151,10 +7757,10 @@
     </row>
     <row r="222" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B222" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C222" s="0" t="n">
         <v>4</v>
@@ -7181,10 +7787,10 @@
     </row>
     <row r="223" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B223" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C223" s="0" t="n">
         <v>4</v>
@@ -7211,10 +7817,10 @@
     </row>
     <row r="224" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B224" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C224" s="0" t="n">
         <v>4</v>
@@ -7241,10 +7847,10 @@
     </row>
     <row r="225" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B225" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C225" s="0" t="n">
         <v>4</v>
@@ -7271,10 +7877,10 @@
     </row>
     <row r="226" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B226" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C226" s="0" t="n">
         <v>4</v>
@@ -7301,10 +7907,10 @@
     </row>
     <row r="227" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B227" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C227" s="0" t="n">
         <v>0</v>
@@ -7331,10 +7937,10 @@
     </row>
     <row r="228" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B228" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C228" s="0" t="n">
         <v>0</v>
@@ -7361,10 +7967,10 @@
     </row>
     <row r="229" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B229" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C229" s="0" t="n">
         <v>0</v>
@@ -7391,10 +7997,10 @@
     </row>
     <row r="230" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B230" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C230" s="0" t="n">
         <v>0</v>
@@ -7421,10 +8027,10 @@
     </row>
     <row r="231" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B231" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C231" s="0" t="n">
         <v>0</v>
@@ -7451,10 +8057,10 @@
     </row>
     <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B232" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C232" s="0" t="n">
         <v>0</v>
@@ -7482,13 +8088,21 @@
         <f aca="false">IF(ROUND(F232,2)=H232,0,1)</f>
         <v>0</v>
       </c>
+      <c r="K232" s="0" t="n">
+        <f aca="false">IF(G232&lt;E232,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L232" s="0" t="n">
+        <f aca="false">IF(H232&lt;=ROUND(F232,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B233" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C233" s="0" t="n">
         <v>0</v>
@@ -7516,13 +8130,21 @@
         <f aca="false">IF(ROUND(F233,2)=H233,0,1)</f>
         <v>1</v>
       </c>
+      <c r="K233" s="0" t="n">
+        <f aca="false">IF(G233&lt;E233,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L233" s="0" t="n">
+        <f aca="false">IF(H233&lt;=ROUND(F233,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="234" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B234" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C234" s="0" t="n">
         <v>0</v>
@@ -7549,10 +8171,10 @@
     </row>
     <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B235" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C235" s="0" t="n">
         <v>0</v>
@@ -7580,13 +8202,21 @@
         <f aca="false">IF(ROUND(F235,2)=H235,0,1)</f>
         <v>0</v>
       </c>
+      <c r="K235" s="0" t="n">
+        <f aca="false">IF(G235&lt;E235,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L235" s="0" t="n">
+        <f aca="false">IF(H235&lt;=ROUND(F235,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="236" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B236" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C236" s="0" t="n">
         <v>0</v>
@@ -7613,10 +8243,10 @@
     </row>
     <row r="237" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B237" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C237" s="0" t="n">
         <v>2</v>
@@ -7643,10 +8273,10 @@
     </row>
     <row r="238" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B238" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C238" s="0" t="n">
         <v>2</v>
@@ -7673,10 +8303,10 @@
     </row>
     <row r="239" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B239" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C239" s="0" t="n">
         <v>2</v>
@@ -7703,10 +8333,10 @@
     </row>
     <row r="240" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B240" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C240" s="0" t="n">
         <v>2</v>
@@ -7733,10 +8363,10 @@
     </row>
     <row r="241" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B241" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C241" s="0" t="n">
         <v>2</v>
@@ -7763,10 +8393,10 @@
     </row>
     <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B242" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C242" s="0" t="n">
         <v>3</v>
@@ -7794,13 +8424,21 @@
         <f aca="false">IF(ROUND(F242,2)=H242,0,1)</f>
         <v>0</v>
       </c>
+      <c r="K242" s="0" t="n">
+        <f aca="false">IF(G242&lt;E242,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L242" s="0" t="n">
+        <f aca="false">IF(H242&lt;=ROUND(F242,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B243" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C243" s="0" t="n">
         <v>3</v>
@@ -7828,13 +8466,21 @@
         <f aca="false">IF(ROUND(F243,2)=H243,0,1)</f>
         <v>1</v>
       </c>
+      <c r="K243" s="0" t="n">
+        <f aca="false">IF(G243&lt;E243,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L243" s="0" t="n">
+        <f aca="false">IF(H243&lt;=ROUND(F243,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="244" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B244" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C244" s="0" t="n">
         <v>3</v>
@@ -7861,10 +8507,10 @@
     </row>
     <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B245" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C245" s="0" t="n">
         <v>3</v>
@@ -7892,13 +8538,21 @@
         <f aca="false">IF(ROUND(F245,2)=H245,0,1)</f>
         <v>0</v>
       </c>
+      <c r="K245" s="0" t="n">
+        <f aca="false">IF(G245&lt;E245,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L245" s="0" t="n">
+        <f aca="false">IF(H245&lt;=ROUND(F245,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="246" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B246" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C246" s="0" t="n">
         <v>3</v>
@@ -7925,10 +8579,10 @@
     </row>
     <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B247" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C247" s="0" t="n">
         <v>4</v>
@@ -7956,13 +8610,21 @@
         <f aca="false">IF(ROUND(F247,2)=H247,0,1)</f>
         <v>0</v>
       </c>
+      <c r="K247" s="0" t="n">
+        <f aca="false">IF(G247&lt;E247,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L247" s="0" t="n">
+        <f aca="false">IF(H247&lt;=ROUND(F247,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B248" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C248" s="0" t="n">
         <v>4</v>
@@ -7990,13 +8652,21 @@
         <f aca="false">IF(ROUND(F248,2)=H248,0,1)</f>
         <v>1</v>
       </c>
+      <c r="K248" s="0" t="n">
+        <f aca="false">IF(G248&lt;E248,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L248" s="0" t="n">
+        <f aca="false">IF(H248&lt;=ROUND(F248,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="249" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B249" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C249" s="0" t="n">
         <v>4</v>
@@ -8023,10 +8693,10 @@
     </row>
     <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B250" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C250" s="0" t="n">
         <v>4</v>
@@ -8054,13 +8724,21 @@
         <f aca="false">IF(ROUND(F250,2)=H250,0,1)</f>
         <v>0</v>
       </c>
+      <c r="K250" s="0" t="n">
+        <f aca="false">IF(G250&lt;E250,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L250" s="0" t="n">
+        <f aca="false">IF(H250&lt;=ROUND(F250,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="251" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B251" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C251" s="0" t="n">
         <v>4</v>
@@ -8087,10 +8765,10 @@
     </row>
     <row r="252" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B252" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C252" s="0" t="n">
         <v>0</v>
@@ -8117,10 +8795,10 @@
     </row>
     <row r="253" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B253" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C253" s="0" t="n">
         <v>0</v>
@@ -8147,10 +8825,10 @@
     </row>
     <row r="254" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B254" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C254" s="0" t="n">
         <v>0</v>
@@ -8177,10 +8855,10 @@
     </row>
     <row r="255" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B255" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C255" s="0" t="n">
         <v>0</v>
@@ -8207,10 +8885,10 @@
     </row>
     <row r="256" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B256" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C256" s="0" t="n">
         <v>0</v>
@@ -8237,10 +8915,10 @@
     </row>
     <row r="257" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B257" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C257" s="0" t="n">
         <v>0</v>
@@ -8267,10 +8945,10 @@
     </row>
     <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B258" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C258" s="0" t="n">
         <v>0</v>
@@ -8298,47 +8976,66 @@
         <f aca="false">IF(ROUND(F258,2)=H258,0,1)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="B259" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="C259" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D259" s="0" t="n">
+      <c r="K258" s="0" t="n">
+        <f aca="false">IF(G258&lt;E258,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L258" s="0" t="n">
+        <f aca="false">IF(H258&lt;=ROUND(F258,2),0,1)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" s="4" customFormat="true" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B259" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C259" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D259" s="2" t="n">
         <v>1.8</v>
       </c>
-      <c r="E259" s="0" t="n">
+      <c r="E259" s="2" t="n">
         <v>99</v>
       </c>
-      <c r="F259" s="0" t="n">
+      <c r="F259" s="2" t="n">
         <v>44682.983303641</v>
       </c>
-      <c r="G259" s="0" t="n">
+      <c r="G259" s="2" t="n">
         <v>97</v>
       </c>
-      <c r="H259" s="0" t="n">
+      <c r="H259" s="2" t="n">
         <v>44683.36</v>
       </c>
-      <c r="I259" s="0" t="n">
+      <c r="I259" s="2" t="n">
         <f aca="false">IF(E259=G259,0,1)</f>
         <v>1</v>
       </c>
-      <c r="J259" s="0" t="n">
+      <c r="J259" s="2" t="n">
         <f aca="false">IF(ROUND(F259,2)=H259,0,1)</f>
         <v>1</v>
+      </c>
+      <c r="K259" s="4" t="n">
+        <f aca="false">IF(G259&lt;E259,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L259" s="4" t="n">
+        <f aca="false">IF(H259&lt;=ROUND(F259,2),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="M259" s="4" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B260" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C260" s="0" t="n">
         <v>0</v>
@@ -8365,10 +9062,10 @@
     </row>
     <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B261" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C261" s="0" t="n">
         <v>0</v>
@@ -8396,13 +9093,21 @@
         <f aca="false">IF(ROUND(F261,2)=H261,0,1)</f>
         <v>1</v>
       </c>
+      <c r="K261" s="0" t="n">
+        <f aca="false">IF(G261&lt;E261,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L261" s="0" t="n">
+        <f aca="false">IF(H261&lt;=ROUND(F261,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="262" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B262" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C262" s="0" t="n">
         <v>2</v>
@@ -8429,10 +9134,10 @@
     </row>
     <row r="263" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B263" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C263" s="0" t="n">
         <v>2</v>
@@ -8459,10 +9164,10 @@
     </row>
     <row r="264" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B264" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C264" s="0" t="n">
         <v>2</v>
@@ -8489,10 +9194,10 @@
     </row>
     <row r="265" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B265" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C265" s="0" t="n">
         <v>2</v>
@@ -8519,10 +9224,10 @@
     </row>
     <row r="266" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B266" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C266" s="0" t="n">
         <v>2</v>
@@ -8549,10 +9254,10 @@
     </row>
     <row r="267" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B267" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C267" s="0" t="n">
         <v>3</v>
@@ -8579,10 +9284,10 @@
     </row>
     <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B268" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C268" s="0" t="n">
         <v>3</v>
@@ -8610,13 +9315,21 @@
         <f aca="false">IF(ROUND(F268,2)=H268,0,1)</f>
         <v>0</v>
       </c>
+      <c r="K268" s="0" t="n">
+        <f aca="false">IF(G268&lt;E268,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L268" s="0" t="n">
+        <f aca="false">IF(H268&lt;=ROUND(F268,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B269" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C269" s="0" t="n">
         <v>3</v>
@@ -8644,13 +9357,21 @@
         <f aca="false">IF(ROUND(F269,2)=H269,0,1)</f>
         <v>1</v>
       </c>
+      <c r="K269" s="0" t="n">
+        <f aca="false">IF(G269&lt;E269,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L269" s="0" t="n">
+        <f aca="false">IF(H269&lt;=ROUND(F269,2),0,1)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="270" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B270" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C270" s="0" t="n">
         <v>3</v>
@@ -8677,10 +9398,10 @@
     </row>
     <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B271" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C271" s="0" t="n">
         <v>3</v>
@@ -8708,13 +9429,21 @@
         <f aca="false">IF(ROUND(F271,2)=H271,0,1)</f>
         <v>1</v>
       </c>
+      <c r="K271" s="0" t="n">
+        <f aca="false">IF(G271&lt;E271,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L271" s="0" t="n">
+        <f aca="false">IF(H271&lt;=ROUND(F271,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="272" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B272" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C272" s="0" t="n">
         <v>4</v>
@@ -8741,10 +9470,10 @@
     </row>
     <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B273" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C273" s="0" t="n">
         <v>4</v>
@@ -8772,13 +9501,21 @@
         <f aca="false">IF(ROUND(F273,2)=H273,0,1)</f>
         <v>0</v>
       </c>
+      <c r="K273" s="0" t="n">
+        <f aca="false">IF(G273&lt;E273,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L273" s="0" t="n">
+        <f aca="false">IF(H273&lt;=ROUND(F273,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A274" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B274" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C274" s="0" t="n">
         <v>4</v>
@@ -8806,13 +9543,21 @@
         <f aca="false">IF(ROUND(F274,2)=H274,0,1)</f>
         <v>1</v>
       </c>
+      <c r="K274" s="0" t="n">
+        <f aca="false">IF(G274&lt;E274,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L274" s="0" t="n">
+        <f aca="false">IF(H274&lt;=ROUND(F274,2),0,1)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="275" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B275" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C275" s="0" t="n">
         <v>4</v>
@@ -8839,10 +9584,10 @@
     </row>
     <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="0" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B276" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C276" s="0" t="n">
         <v>4</v>
@@ -8870,13 +9615,21 @@
         <f aca="false">IF(ROUND(F276,2)=H276,0,1)</f>
         <v>1</v>
       </c>
+      <c r="K276" s="0" t="n">
+        <f aca="false">IF(G276&lt;E276,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L276" s="0" t="n">
+        <f aca="false">IF(H276&lt;=ROUND(F276,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="277" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B277" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C277" s="0" t="n">
         <v>0</v>
@@ -8903,10 +9656,10 @@
     </row>
     <row r="278" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B278" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C278" s="0" t="n">
         <v>0</v>
@@ -8933,10 +9686,10 @@
     </row>
     <row r="279" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B279" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C279" s="0" t="n">
         <v>0</v>
@@ -8963,10 +9716,10 @@
     </row>
     <row r="280" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B280" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C280" s="0" t="n">
         <v>0</v>
@@ -8993,10 +9746,10 @@
     </row>
     <row r="281" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B281" s="0" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C281" s="0" t="n">
         <v>0</v>
@@ -9023,10 +9776,10 @@
     </row>
     <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B282" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C282" s="0" t="n">
         <v>0</v>
@@ -9054,13 +9807,21 @@
         <f aca="false">IF(ROUND(F282,2)=H282,0,1)</f>
         <v>1</v>
       </c>
+      <c r="K282" s="0" t="n">
+        <f aca="false">IF(G282&lt;E282,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L282" s="0" t="n">
+        <f aca="false">IF(H282&lt;=ROUND(F282,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B283" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C283" s="0" t="n">
         <v>0</v>
@@ -9088,13 +9849,21 @@
         <f aca="false">IF(ROUND(F283,2)=H283,0,1)</f>
         <v>1</v>
       </c>
+      <c r="K283" s="0" t="n">
+        <f aca="false">IF(G283&lt;E283,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L283" s="0" t="n">
+        <f aca="false">IF(H283&lt;=ROUND(F283,2),0,1)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B284" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C284" s="0" t="n">
         <v>0</v>
@@ -9122,13 +9891,21 @@
         <f aca="false">IF(ROUND(F284,2)=H284,0,1)</f>
         <v>1</v>
       </c>
+      <c r="K284" s="0" t="n">
+        <f aca="false">IF(G284&lt;E284,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L284" s="0" t="n">
+        <f aca="false">IF(H284&lt;=ROUND(F284,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="285" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B285" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C285" s="0" t="n">
         <v>0</v>
@@ -9155,10 +9932,10 @@
     </row>
     <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B286" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C286" s="0" t="n">
         <v>0</v>
@@ -9186,13 +9963,21 @@
         <f aca="false">IF(ROUND(F286,2)=H286,0,1)</f>
         <v>1</v>
       </c>
+      <c r="K286" s="0" t="n">
+        <f aca="false">IF(G286&lt;E286,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L286" s="0" t="n">
+        <f aca="false">IF(H286&lt;=ROUND(F286,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="287" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B287" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C287" s="0" t="n">
         <v>2</v>
@@ -9219,10 +10004,10 @@
     </row>
     <row r="288" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B288" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C288" s="0" t="n">
         <v>2</v>
@@ -9249,10 +10034,10 @@
     </row>
     <row r="289" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B289" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C289" s="0" t="n">
         <v>2</v>
@@ -9279,10 +10064,10 @@
     </row>
     <row r="290" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B290" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C290" s="0" t="n">
         <v>2</v>
@@ -9309,10 +10094,10 @@
     </row>
     <row r="291" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B291" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C291" s="0" t="n">
         <v>2</v>
@@ -9339,10 +10124,10 @@
     </row>
     <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B292" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C292" s="0" t="n">
         <v>3</v>
@@ -9370,13 +10155,21 @@
         <f aca="false">IF(ROUND(F292,2)=H292,0,1)</f>
         <v>1</v>
       </c>
+      <c r="K292" s="0" t="n">
+        <f aca="false">IF(G292&lt;E292,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L292" s="0" t="n">
+        <f aca="false">IF(H292&lt;=ROUND(F292,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B293" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C293" s="0" t="n">
         <v>3</v>
@@ -9404,13 +10197,21 @@
         <f aca="false">IF(ROUND(F293,2)=H293,0,1)</f>
         <v>1</v>
       </c>
+      <c r="K293" s="0" t="n">
+        <f aca="false">IF(G293&lt;E293,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L293" s="0" t="n">
+        <f aca="false">IF(H293&lt;=ROUND(F293,2),0,1)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A294" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B294" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C294" s="0" t="n">
         <v>3</v>
@@ -9438,13 +10239,21 @@
         <f aca="false">IF(ROUND(F294,2)=H294,0,1)</f>
         <v>1</v>
       </c>
+      <c r="K294" s="0" t="n">
+        <f aca="false">IF(G294&lt;E294,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L294" s="0" t="n">
+        <f aca="false">IF(H294&lt;=ROUND(F294,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="295" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A295" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B295" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C295" s="0" t="n">
         <v>3</v>
@@ -9471,10 +10280,10 @@
     </row>
     <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B296" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C296" s="0" t="n">
         <v>3</v>
@@ -9502,13 +10311,21 @@
         <f aca="false">IF(ROUND(F296,2)=H296,0,1)</f>
         <v>1</v>
       </c>
+      <c r="K296" s="0" t="n">
+        <f aca="false">IF(G296&lt;E296,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L296" s="0" t="n">
+        <f aca="false">IF(H296&lt;=ROUND(F296,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B297" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C297" s="0" t="n">
         <v>4</v>
@@ -9536,13 +10353,21 @@
         <f aca="false">IF(ROUND(F297,2)=H297,0,1)</f>
         <v>1</v>
       </c>
+      <c r="K297" s="0" t="n">
+        <f aca="false">IF(G297&lt;E297,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L297" s="0" t="n">
+        <f aca="false">IF(H297&lt;=ROUND(F297,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B298" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C298" s="0" t="n">
         <v>4</v>
@@ -9570,13 +10395,21 @@
         <f aca="false">IF(ROUND(F298,2)=H298,0,1)</f>
         <v>1</v>
       </c>
+      <c r="K298" s="0" t="n">
+        <f aca="false">IF(G298&lt;E298,0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="L298" s="0" t="n">
+        <f aca="false">IF(H298&lt;=ROUND(F298,2),0,1)</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B299" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C299" s="0" t="n">
         <v>4</v>
@@ -9604,13 +10437,21 @@
         <f aca="false">IF(ROUND(F299,2)=H299,0,1)</f>
         <v>1</v>
       </c>
+      <c r="K299" s="0" t="n">
+        <f aca="false">IF(G299&lt;E299,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L299" s="0" t="n">
+        <f aca="false">IF(H299&lt;=ROUND(F299,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="300" customFormat="false" ht="13.8" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B300" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C300" s="0" t="n">
         <v>4</v>
@@ -9637,10 +10478,10 @@
     </row>
     <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="0" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B301" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C301" s="0" t="n">
         <v>4</v>
@@ -9668,9 +10509,23 @@
         <f aca="false">IF(ROUND(F301,2)=H301,0,1)</f>
         <v>1</v>
       </c>
+      <c r="K301" s="0" t="n">
+        <f aca="false">IF(G301&lt;E301,0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="L301" s="0" t="n">
+        <f aca="false">IF(H301&lt;=ROUND(F301,2),0,1)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J301">
+  <autoFilter ref="A1:M301">
+    <filterColumn colId="12">
+      <filters blank="1">
+        <filter val="manually checked, different objval between the two all_trial excel files, doesn’t appear to be due to run time?"/>
+        <filter val="manually checked, different objval between the two all_trial excel, super weird, does not appear to be due to run_time"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="8">
       <filters>
         <filter val="1"/>
